--- a/src/test/resources/db/data_init/2018-05-19-data-init.xlsx
+++ b/src/test/resources/db/data_init/2018-05-19-data-init.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KanbanWork\agile-service\src\main\resources\script\db\data_init\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B79041-4C3A-49D7-95BB-7874839B52FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8970" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="agile_lookup_type" sheetId="10" r:id="rId2"/>
-    <sheet name="agile_lookup_value" sheetId="11" r:id="rId3"/>
-    <sheet name="agile_quick_filter_field" sheetId="12" r:id="rId4"/>
+    <sheet name="README" sheetId="1" r:id="rId4"/>
+    <sheet name="agile_lookup_type" sheetId="2" r:id="rId5"/>
+    <sheet name="agile_lookup_value" sheetId="3" r:id="rId6"/>
+    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId7"/>
+    <sheet name="agile_message" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-  </definedNames>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>agile_lookup_type</t>
   </si>
@@ -374,6 +362,9 @@
     <t>epic_color_h</t>
   </si>
   <si>
+    <t>rgba(0,0,0,0.36)</t>
+  </si>
+  <si>
     <t>灰色</t>
   </si>
   <si>
@@ -572,49 +563,98 @@
     <t>类型</t>
   </si>
   <si>
-    <t>rgba(0,0,0,0.36)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>agile_message</t>
+  </si>
+  <si>
+    <t>#event</t>
+  </si>
+  <si>
+    <t>#notice_type</t>
+  </si>
+  <si>
+    <t>notice_name</t>
+  </si>
+  <si>
+    <t>is_enable</t>
+  </si>
+  <si>
+    <t>issue_created</t>
+  </si>
+  <si>
+    <t>assigneer</t>
+  </si>
+  <si>
+    <t>当前处理人</t>
+  </si>
+  <si>
+    <t>project_owner</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>issue_assigneed</t>
+  </si>
+  <si>
+    <t>issue_solved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <color indexed="8"/>
+      <name val="DejaVu Serif"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -622,50 +662,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="top"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -686,82 +773,22 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,76 +800,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -853,1165 +870,2905 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="9.75"/>
+    <col min="1" max="1" width="9.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:G18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="9.75"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="30.5"/>
-    <col min="7" max="7" width="17.625"/>
-    <col min="8" max="8" width="11"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="1025" width="9.75"/>
+    <col min="1" max="1" width="9.85156" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6719" style="3" customWidth="1"/>
+    <col min="8" max="256" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7">
-      <c r="D7" s="1" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="4">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
-      <c r="E8" t="s">
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
-      <c r="E9" t="s">
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
-      <c r="E10" t="s">
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
-      <c r="E11" t="s">
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
-      <c r="E12" t="s">
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
-      <c r="E13" t="s">
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
-      <c r="E14" t="s">
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
-      <c r="E15" t="s">
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
-      <c r="E16" t="s">
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
-      <c r="E17" t="s">
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="5:7">
-      <c r="E18" t="s">
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="5">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H50"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
-    <col min="7" max="7" width="29.625" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.3516" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.6719" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.1719" style="6" customWidth="1"/>
+    <col min="9" max="256" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
-      <c r="D7" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
-      <c r="E8" t="s">
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
-      <c r="E9" t="s">
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
-      <c r="E10" t="s">
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
-      <c r="E11" t="s">
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" t="s" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
-      <c r="E12" t="s">
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" t="s" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
-      <c r="E13" t="s">
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" t="s" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
-      <c r="E14" t="s">
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" t="s" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
-      <c r="E15" t="s">
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" t="s" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
-      <c r="E16" t="s">
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" t="s" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
-      <c r="E17" t="s">
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" t="s" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="5:8">
-      <c r="E18" t="s">
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" t="s" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="5:8">
-      <c r="E19" t="s">
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="5">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" t="s" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
-      <c r="E20" t="s">
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" t="s" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
-      <c r="E21" t="s">
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" t="s" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="5:8">
-      <c r="E22" t="s">
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" t="s" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="5:8">
-      <c r="E23" t="s">
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" t="s" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="5:8">
-      <c r="E24" t="s">
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" t="s" s="5">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="5:8">
-      <c r="E25" t="s">
+    <row r="25" ht="17" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" t="s" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
-      <c r="E26" t="s">
+    <row r="26" ht="17" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" t="s" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="5:8">
-      <c r="E27" t="s">
+    <row r="27" ht="17" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" t="s" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="5:8">
-      <c r="E28" t="s">
+    <row r="28" ht="17" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="5">
         <v>79</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" t="s" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="5:8">
-      <c r="E29" t="s">
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" t="s" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="5:8">
-      <c r="E30" t="s">
+    <row r="30" ht="17" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" t="s" s="5">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="5:8">
-      <c r="E31" t="s">
+    <row r="31" ht="17" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="5">
         <v>83</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" t="s" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="5:8">
-      <c r="E32" t="s">
+    <row r="32" ht="17" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" t="s" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
-      <c r="E33" t="s">
+    <row r="33" ht="17" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" t="s" s="5">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
-      <c r="E34" t="s">
+    <row r="34" ht="17" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" t="s" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
-      <c r="E35" t="s">
+    <row r="35" ht="17" customHeight="1">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" t="s" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
-      <c r="E36" t="s">
+    <row r="36" ht="17" customHeight="1">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
-      <c r="E37" t="s">
+    <row r="37" ht="17" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" t="s" s="5">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
-      <c r="E38" t="s">
+    <row r="38" ht="17" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" t="s" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
-      <c r="E39" t="s">
+    <row r="39" ht="17" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" t="s" s="5">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
-      <c r="E40" t="s">
+    <row r="40" ht="17" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="5">
         <v>105</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" t="s" s="5">
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
-      <c r="E41" t="s">
+    <row r="41" ht="17" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="s" s="5">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
-      <c r="E42" t="s">
+    <row r="42" ht="17" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="5">
         <v>111</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" t="s" s="5">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
-      <c r="E43" t="s">
+    <row r="43" ht="17" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="G43" t="s">
-        <v>181</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="44" spans="5:8">
-      <c r="E44" t="s">
+      <c r="H43" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="44" ht="17" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="F44" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="H44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8">
-      <c r="E45" t="s">
+      <c r="H44" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="F45" t="s">
+    </row>
+    <row r="45" ht="17" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="5">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="H45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="5:8">
-      <c r="E46" t="s">
+      <c r="H45" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="46" ht="17" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="5">
+        <v>121</v>
+      </c>
+      <c r="F46" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="H46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="5:8">
-      <c r="E47" t="s">
+      <c r="H46" t="s" s="5">
         <v>122</v>
       </c>
-      <c r="F47" t="s">
+    </row>
+    <row r="47" ht="17" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="5">
+        <v>123</v>
+      </c>
+      <c r="F47" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G47" t="s">
-        <v>123</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s" s="5">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="5:8">
-      <c r="E48" t="s">
+      <c r="H47" t="s" s="5">
         <v>125</v>
       </c>
-      <c r="F48" t="s">
+    </row>
+    <row r="48" ht="17" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="5">
+        <v>126</v>
+      </c>
+      <c r="F48" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G48" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s" s="5">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="5:8">
-      <c r="E49" t="s">
+      <c r="H48" t="s" s="5">
         <v>128</v>
       </c>
-      <c r="F49" t="s">
+    </row>
+    <row r="49" ht="17" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="5">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s" s="5">
         <v>130</v>
       </c>
-    </row>
-    <row r="50" spans="5:8">
-      <c r="E50" t="s">
+      <c r="H49" t="s" s="5">
         <v>131</v>
       </c>
-      <c r="F50" t="s">
+    </row>
+    <row r="50" ht="17" customHeight="1">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="F50" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="G50" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s" s="5">
         <v>133</v>
       </c>
+      <c r="H50" t="s" s="5">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:H24"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.1719" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.8516" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.3516" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="7" customWidth="1"/>
+    <col min="9" max="256" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="5">
         <v>135</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s" s="5">
         <v>136</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s" s="5">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="E8" t="s">
+      <c r="H7" t="s" s="5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s" s="5">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s" s="5">
+        <v>144</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="H12" t="s" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s" s="5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="5">
+        <v>154</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="H15" t="s" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s" s="5">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="5">
+        <v>167</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>168</v>
+      </c>
+      <c r="H19" t="s" s="5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="F20" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s" s="5">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="5">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="H21" t="s" s="5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="5">
+        <v>176</v>
+      </c>
+      <c r="F22" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s" s="5">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="H23" t="s" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s" s="5">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="E10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G24" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="H24" t="s" s="5">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.85156" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.85156" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.85156" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.6719" style="8" customWidth="1"/>
+    <col min="8" max="8" width="17.6719" style="8" customWidth="1"/>
+    <col min="9" max="256" width="9" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="4">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>185</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="F9" t="s" s="5">
         <v>146</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G9" t="s" s="5">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="E12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="E14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="E15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" t="s">
-        <v>162</v>
-      </c>
-      <c r="H17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8">
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8">
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8">
-      <c r="E21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8">
-      <c r="E22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8">
-      <c r="E23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8">
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H24" t="s">
-        <v>39</v>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>191</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>191</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>191</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>